--- a/mcmaster_excel/Metric_Sealing_Pan_Head_Screws.xlsx
+++ b/mcmaster_excel/Metric_Sealing_Pan_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,124 +434,198 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>For Max. HoleDia., mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>O-Ring TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Max.Pressure, psi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr"/>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>For Max. HoleDia., mm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>O-Ring TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Max.Pressure, psi</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-80° to 400°</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>93627A206</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>$9.43</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -606,21 +680,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>93627A206</t>
+          <t>93627A210</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>$9.43</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -675,21 +757,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>93627A210</t>
+          <t>93627A214</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -744,7 +834,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>93627A214</t>
+          <t>93627A218</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -752,13 +842,21 @@
           <t>7.72</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -813,7 +911,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>93627A218</t>
+          <t>93627A222</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -821,13 +919,21 @@
           <t>7.72</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -837,7 +943,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -847,7 +953,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -872,7 +978,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -882,21 +988,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>93627A222</t>
+          <t>93627A641</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -906,7 +1020,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -916,7 +1030,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -941,7 +1055,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -951,21 +1065,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>93627A641</t>
+          <t>93627A714</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -975,17 +1097,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1020,42 +1142,106 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>93627A714</t>
+          <t>93627A313</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-80° to 400°</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>93627A317</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1110,21 +1296,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>93627A313</t>
+          <t>93627A321</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1179,21 +1373,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>93627A317</t>
+          <t>93627A325</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1248,21 +1450,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>93627A321</t>
+          <t>93627A329</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1272,17 +1482,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1307,7 +1517,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1317,21 +1527,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>93627A325</t>
+          <t>93627A642</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1341,17 +1559,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1376,7 +1594,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1386,21 +1604,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>93627A329</t>
+          <t>93627A711</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1410,17 +1636,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1445,7 +1671,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1455,21 +1681,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>93627A642</t>
+          <t>93627A404</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1479,17 +1713,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1514,7 +1748,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1524,42 +1758,106 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>93627A711</t>
+          <t>93627A408</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-80° to 400°</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>93627A412</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1614,7 +1912,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>93627A404</t>
+          <t>93627A413</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1622,13 +1920,21 @@
           <t>9.72</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1683,21 +1989,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>93627A408</t>
+          <t>93627A420</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1752,21 +2066,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>93627A412</t>
+          <t>93627A424</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1776,7 +2098,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1786,12 +2108,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1811,7 +2133,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1821,21 +2143,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>93627A413</t>
+          <t>93627A712</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1845,7 +2175,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1855,12 +2185,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1880,7 +2210,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1890,21 +2220,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>93627A420</t>
+          <t>93627A643</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1914,7 +2252,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1924,12 +2262,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1949,7 +2287,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1959,21 +2297,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>93627A424</t>
+          <t>93627A644</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2023,26 +2369,34 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>93627A712</t>
+          <t>93627A713</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2052,17 +2406,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2097,7 +2451,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>93627A643</t>
+          <t>93627A645</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2105,13 +2459,21 @@
           <t>8.00</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2121,17 +2483,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2166,7 +2528,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>93627A644</t>
+          <t>93627A647</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2174,13 +2536,21 @@
           <t>9.14</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2190,17 +2560,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2225,52 +2595,116 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>93627A713</t>
+          <t>93627A507</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>M3.5 × 0.6 mm</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-80° to 400°</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>93627A511</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2280,17 +2714,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2315,7 +2749,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2325,7 +2759,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>93627A645</t>
+          <t>93627A515</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2333,8 +2767,16 @@
           <t>8.00</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2349,17 +2791,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2384,7 +2826,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2394,42 +2836,106 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>93627A647</t>
+          <t>93627A519</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-80° to 400°</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>93627A524</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2484,21 +2990,29 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>93627A507</t>
+          <t>93627A715</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>10.57</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2553,21 +3067,29 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>93627A511</t>
+          <t>93627A529</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2577,17 +3099,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2612,7 +3134,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2622,21 +3144,29 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>93627A515</t>
+          <t>93627A648</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2646,17 +3176,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2691,21 +3221,29 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>93627A519</t>
+          <t>93627A610</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2715,17 +3253,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2760,21 +3298,29 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>93627A524</t>
+          <t>93627A615</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2784,17 +3330,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2829,21 +3375,29 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>93627A715</t>
+          <t>93627A620</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2853,17 +3407,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2898,7 +3452,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>93627A529</t>
+          <t>93627A625</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -2906,13 +3460,21 @@
           <t>9.72</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2922,17 +3484,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2957,7 +3519,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2967,42 +3529,106 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>93627A648</t>
+          <t>93627A630</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-80° to 400°</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ISO 7045</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>93627A649</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3012,22 +3638,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3047,7 +3673,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3057,21 +3683,29 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>93627A610</t>
+          <t>93627A650</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11.71</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3081,22 +3715,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3116,31 +3750,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>93627A615</t>
+          <t>93627A651</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3150,22 +3792,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3185,31 +3827,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>93627A620</t>
+          <t>93627A652</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>10.57</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3219,22 +3869,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3254,461 +3904,34 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>93627A625</t>
+          <t>93627A653</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>-80° to 400°</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>93627A630</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>10.57</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>-80° to 400°</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>ISO 7045</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>93627A649</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>13.72</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>12.58</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>-80° to 400°</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>ISO 7045</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>93627A650</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>12.57</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>12.58</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>-80° to 400°</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>ISO 7045</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>93627A651</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>12.58</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>-80° to 400°</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>ISO 7045</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>93627A652</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>12.58</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>-80° to 400°</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>ISO 7045</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>93627A653</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
